--- a/model_inputs/financial_reports/clinical/PHSA.xlsx
+++ b/model_inputs/financial_reports/clinical/PHSA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586CA36C-9035-46E8-BDDA-05314D9F57AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB99166-2F6A-4543-97F4-47C081B27F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,8 +667,8 @@
         <v>1613</v>
       </c>
       <c r="B2" s="8">
-        <f t="shared" ref="B2:B4" si="0">C2-D2-E2-F2</f>
-        <v>388276.55</v>
+        <f>C2-D2</f>
+        <v>561542</v>
       </c>
       <c r="C2" s="9">
         <v>1916734.45</v>
@@ -683,8 +683,8 @@
         <v>173265.45</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G5" si="1">H2-I2-J2-K2</f>
-        <v>286460</v>
+        <f>H2-I2</f>
+        <v>334404</v>
       </c>
       <c r="H2" s="9">
         <v>1576431.26</v>
@@ -704,8 +704,8 @@
         <v>1713</v>
       </c>
       <c r="B3" s="8">
-        <f t="shared" si="0"/>
-        <v>372871.01999999984</v>
+        <f t="shared" ref="B3:B6" si="0">C3-D3</f>
+        <v>540536.58999999985</v>
       </c>
       <c r="C3" s="9">
         <v>2028858.42</v>
@@ -720,8 +720,8 @@
         <v>167665.57</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" si="1"/>
-        <v>286460</v>
+        <f t="shared" ref="G3:G6" si="1">H3-I3</f>
+        <v>334404</v>
       </c>
       <c r="H3" s="9">
         <v>1581670.26</v>
@@ -742,7 +742,7 @@
       </c>
       <c r="B4" s="8">
         <f t="shared" si="0"/>
-        <v>223627.45999999993</v>
+        <v>227756.93999999994</v>
       </c>
       <c r="C4" s="9">
         <v>1780603.16</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="G4" s="10">
         <f t="shared" si="1"/>
-        <v>286460</v>
+        <v>334404</v>
       </c>
       <c r="H4" s="9">
         <v>1605609.26</v>
@@ -778,8 +778,8 @@
         <v>1913</v>
       </c>
       <c r="B5" s="8">
-        <f>C5-D5-E5-F5</f>
-        <v>509658.41999999993</v>
+        <f t="shared" si="0"/>
+        <v>511641.89999999991</v>
       </c>
       <c r="C5" s="9">
         <v>2102001.73</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="G5" s="10">
         <f t="shared" si="1"/>
-        <v>411459.99999999977</v>
+        <v>684403.99999999977</v>
       </c>
       <c r="H5" s="3">
         <v>2314075.2599999998</v>
@@ -815,8 +815,8 @@
         <v>2013</v>
       </c>
       <c r="B6" s="8">
-        <f>C6-D6-E6-F6</f>
-        <v>517300.53</v>
+        <f t="shared" si="0"/>
+        <v>522115.29000000004</v>
       </c>
       <c r="C6" s="9">
         <v>2415784.85</v>
@@ -831,8 +831,8 @@
         <v>4814.76</v>
       </c>
       <c r="G6" s="10">
-        <f>H6-I6-J6-K6</f>
-        <v>411460</v>
+        <f t="shared" si="1"/>
+        <v>684404</v>
       </c>
       <c r="H6" s="9">
         <v>2398347.15</v>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
         <v>1613</v>
       </c>
       <c r="B2" s="8">
-        <f t="shared" ref="B2:B4" si="0">C2-D2-E2-F2</f>
+        <f>C2-D2</f>
         <v>0</v>
       </c>
       <c r="C2" s="9">
@@ -933,7 +933,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G5" si="1">H2-I2-J2-K2</f>
+        <f>H2-I2</f>
         <v>0</v>
       </c>
       <c r="H2" s="9">
@@ -950,7 +950,7 @@
         <v>1713</v>
       </c>
       <c r="B3" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B3:B6" si="0">C3-D3</f>
         <v>0</v>
       </c>
       <c r="C3" s="9">
@@ -962,7 +962,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G3:G6" si="1">H3-I3</f>
         <v>0</v>
       </c>
       <c r="H3" s="9">
@@ -1008,7 +1008,7 @@
         <v>1913</v>
       </c>
       <c r="B5" s="8">
-        <f>C5-D5-E5-F5</f>
+        <f t="shared" si="0"/>
         <v>40975.98000000004</v>
       </c>
       <c r="C5" s="9">
@@ -1037,7 +1037,7 @@
         <v>2013</v>
       </c>
       <c r="B6" s="8">
-        <f>C6-D6-E6-F6</f>
+        <f t="shared" si="0"/>
         <v>40976.440000000031</v>
       </c>
       <c r="C6" s="9">
@@ -1049,7 +1049,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10">
-        <f>H6-I6-J6-K6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="9">

--- a/model_inputs/financial_reports/clinical/PHSA.xlsx
+++ b/model_inputs/financial_reports/clinical/PHSA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB99166-2F6A-4543-97F4-47C081B27F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FEB77E-BFAA-487E-8304-B83CEB5C3CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +677,10 @@
         <v>1355192.45</v>
       </c>
       <c r="E2" s="9">
-        <v>0</v>
+        <v>173265.45</v>
       </c>
       <c r="F2" s="9">
-        <v>173265.45</v>
+        <v>366371.57</v>
       </c>
       <c r="G2" s="10">
         <f>H2-I2</f>
@@ -693,10 +693,10 @@
         <v>1242027.26</v>
       </c>
       <c r="J2" s="9">
-        <v>0</v>
+        <v>47944</v>
       </c>
       <c r="K2" s="9">
-        <v>47944</v>
+        <v>264623</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -714,10 +714,10 @@
         <v>1488321.83</v>
       </c>
       <c r="E3" s="9">
-        <v>0</v>
+        <v>167665.57</v>
       </c>
       <c r="F3" s="9">
-        <v>167665.57</v>
+        <v>457905.52</v>
       </c>
       <c r="G3" s="10">
         <f t="shared" ref="G3:G6" si="1">H3-I3</f>
@@ -730,10 +730,10 @@
         <v>1247266.26</v>
       </c>
       <c r="J3" s="9">
-        <v>0</v>
+        <v>47944</v>
       </c>
       <c r="K3" s="9">
-        <v>47944</v>
+        <v>264623</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
         <v>1552846.22</v>
       </c>
       <c r="E4" s="9">
-        <v>0</v>
+        <v>4129.4799999999996</v>
       </c>
       <c r="F4" s="9">
-        <v>4129.4799999999996</v>
+        <v>365533.61</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" si="1"/>
@@ -767,10 +767,10 @@
         <v>1271205.26</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>47944</v>
       </c>
       <c r="K4" s="9">
-        <v>47944</v>
+        <v>264623</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -788,10 +788,10 @@
         <v>1590359.83</v>
       </c>
       <c r="E5" s="9">
-        <v>0</v>
+        <v>1983.48</v>
       </c>
       <c r="F5" s="9">
-        <v>1983.48</v>
+        <v>385241.67</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="1"/>
@@ -804,10 +804,10 @@
         <v>1629671.26</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>272944</v>
       </c>
       <c r="K5" s="9">
-        <v>272944</v>
+        <v>389623</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -825,10 +825,10 @@
         <v>1893669.56</v>
       </c>
       <c r="E6" s="9">
-        <v>0</v>
+        <v>4814.76</v>
       </c>
       <c r="F6" s="9">
-        <v>4814.76</v>
+        <v>544480.18000000005</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="1"/>
@@ -841,10 +841,10 @@
         <v>1713943.15</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>272944</v>
       </c>
       <c r="K6" s="9">
-        <v>272944</v>
+        <v>389623</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
